--- a/TesDesignTechnique.xlsx
+++ b/TesDesignTechnique.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NashTechHomeWork_LeTuanSang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486798EF-B0C9-49DF-AFA0-9E5FD782774F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28495FF5-D4F1-448D-AE12-2B903B2F9CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51FB8827-63E8-4D11-B30D-421E26451EEC}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
